--- a/backend/uploads/file_krs/krs_EE0103-19_Matematika Diskret dan Logika_A_Tahun_2016.xlsx
+++ b/backend/uploads/file_krs/krs_EE0103-19_Matematika Diskret dan Logika_A_Tahun_2016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8583F60B-BF81-4CB5-A8CF-3A4C77ABA469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51D3F5-82CA-4A9D-84C1-0FA62A8D6A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -80,6 +80,87 @@
   </si>
   <si>
     <t>Nama Mahasiswa</t>
+  </si>
+  <si>
+    <t>I0717001</t>
+  </si>
+  <si>
+    <t>1 </t>
+  </si>
+  <si>
+    <t>I07150211</t>
+  </si>
+  <si>
+    <t>MOHAMMAD IZZUL MUKHTAR </t>
+  </si>
+  <si>
+    <t>2 </t>
+  </si>
+  <si>
+    <t>ADITYA PRATAMA </t>
+  </si>
+  <si>
+    <t>3 </t>
+  </si>
+  <si>
+    <t>I0717002</t>
+  </si>
+  <si>
+    <t>AGUNG BUDI UTOMO </t>
+  </si>
+  <si>
+    <t>4 </t>
+  </si>
+  <si>
+    <t>I0717004</t>
+  </si>
+  <si>
+    <t>Alvin Ichwannur Ridho </t>
+  </si>
+  <si>
+    <t>5 </t>
+  </si>
+  <si>
+    <t>I0717005</t>
+  </si>
+  <si>
+    <t>ARIF WIBOWO </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>I0717006</t>
+  </si>
+  <si>
+    <t>Athaya Cantia Putri </t>
+  </si>
+  <si>
+    <t>7 </t>
+  </si>
+  <si>
+    <t>i0717007</t>
+  </si>
+  <si>
+    <t>Attar Al Mufashal Rasyid </t>
+  </si>
+  <si>
+    <t>8 </t>
+  </si>
+  <si>
+    <t>I0717008</t>
+  </si>
+  <si>
+    <t>Aulia Vici Yunitasari </t>
+  </si>
+  <si>
+    <t>9 </t>
+  </si>
+  <si>
+    <t>I0717009</t>
+  </si>
+  <si>
+    <t>Bakasrian Fericoari </t>
   </si>
 </sst>
 </file>
@@ -180,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -203,6 +284,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,8 +702,102 @@
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>980192830</v>
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
